--- a/machine_learning_and_stats/misc/bin_distribution.xlsx
+++ b/machine_learning_and_stats/misc/bin_distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ueda\GIT\slides_marp\machine_learning_and_stats\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EDEA0B-59BF-4273-B810-CB490C2899B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594C0F4-B57E-47B8-8F1D-31B86E74655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,25 +1254,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.177978515625</c:v>
+                  <c:v>8.77914951989026E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35595703125</c:v>
+                  <c:v>0.26337448559670773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.296630859375</c:v>
+                  <c:v>0.32921810699588477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1318359375</c:v>
+                  <c:v>0.21947873799725651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2958984375E-2</c:v>
+                  <c:v>8.2304526748971193E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.39453125E-3</c:v>
+                  <c:v>1.6460905349794233E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.44140625E-4</c:v>
+                  <c:v>1.3717421124828531E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,7 +3303,7 @@
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -3464,8 +3464,8 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <f xml:space="preserve"> (1/4)^A11 *(3/4)^(6-A11) * FACT(6)/ (FACT(6-A11)*FACT(A11))</f>
-        <v>0.177978515625</v>
+        <f xml:space="preserve"> (1/3)^A11 *(2/3)^(6-A11) * FACT(6)/ (FACT(6-A11)*FACT(A11))</f>
+        <v>8.77914951989026E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
@@ -3481,8 +3481,8 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B17" si="3" xml:space="preserve"> (1/4)^A12 *(3/4)^(6-A12) * FACT(6)/ (FACT(6-A12)*FACT(A12))</f>
-        <v>0.35595703125</v>
+        <f t="shared" ref="B12:B17" si="3" xml:space="preserve"> (1/3)^A12 *(2/3)^(6-A12) * FACT(6)/ (FACT(6-A12)*FACT(A12))</f>
+        <v>0.26337448559670773</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>0.296630859375</v>
+        <v>0.32921810699588477</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>0.1318359375</v>
+        <v>0.21947873799725651</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>3.2958984375E-2</v>
+        <v>8.2304526748971193E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>4.39453125E-3</v>
+        <v>1.6460905349794233E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>2.44140625E-4</v>
+        <v>1.3717421124828531E-3</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -3591,7 +3591,7 @@
     <row r="19" spans="1:5">
       <c r="B19">
         <f>SUM(B11:B17)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
